--- a/Tets-case.xlsx
+++ b/Tets-case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF47C0B-F5C9-4978-BA3D-6D2D707E0EAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5654DA4-C311-4828-88A0-15BA795E6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,15 +58,9 @@
     <t>1.  Запутить модуль sum.py</t>
   </si>
   <si>
-    <t>2. Ввести первое слогаемое целое число</t>
-  </si>
-  <si>
     <t>3. Нажать кнопку "Enter"</t>
   </si>
   <si>
-    <t>4. Ввести второе слогаемое целое число</t>
-  </si>
-  <si>
     <t>5. Нажать кнопку "Enter"</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Сумма двух чисел вычисляется корректно</t>
+  </si>
+  <si>
+    <t>4. Ввести второе слагаемое целое число</t>
+  </si>
+  <si>
+    <t>2. Ввести первое слагаемое целое число</t>
   </si>
 </sst>
 </file>
@@ -349,15 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -369,6 +360,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,60 +665,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>17</v>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,8 +726,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -737,8 +737,8 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="16" t="s">
-        <v>13</v>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -748,8 +748,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="16" t="s">
-        <v>14</v>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -759,8 +759,8 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="17" t="s">
-        <v>15</v>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
